--- a/data/combined data/combined data - 1 cleaning/cleaning step 5 - orgtree/0.4_prelim_org_tocode1.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 5 - orgtree/0.4_prelim_org_tocode1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 5 - orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C308F69-29CC-4833-8921-154FE6EBEFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A080ED6-6117-491E-9620-3FB47D751CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1998">
   <si>
     <t>OrgString</t>
   </si>
@@ -6008,6 +6008,12 @@
   </si>
   <si>
     <t>ParentOrg</t>
+  </si>
+  <si>
+    <t>NotOrg</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -6387,98 +6393,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1995"/>
+  <dimension ref="A1:D1995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="14.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.90625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>262</v>
       </c>
